--- a/com.my.test/src/main/resources/单词表.xlsx
+++ b/com.my.test/src/main/resources/单词表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>序号</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>造句</t>
+  </si>
+  <si>
+    <t>翻译</t>
   </si>
   <si>
     <t>verify</t>
@@ -206,6 +209,34 @@
   </si>
   <si>
     <t>陷阱</t>
+  </si>
+  <si>
+    <t>variant</t>
+  </si>
+  <si>
+    <t>vary</t>
+  </si>
+  <si>
+    <t>变体</t>
+  </si>
+  <si>
+    <t>variant spelling of no exclamation 没有惊叹号的变体拼写</t>
+  </si>
+  <si>
+    <t>primarily</t>
+  </si>
+  <si>
+    <t>significantly</t>
+  </si>
+  <si>
+    <t>主要</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+around 80 percent of personal computers are used primarily for word processing</t>
+  </si>
+  <si>
+    <t>大约80%的订单会被用于word 处理</t>
   </si>
 </sst>
 </file>
@@ -213,9 +244,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -227,6 +258,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -234,9 +280,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,29 +350,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,61 +371,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,17 +389,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -380,13 +411,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,176 +595,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -589,35 +620,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,27 +657,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -686,6 +691,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -694,10 +738,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,137 +750,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -852,7 +896,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1208,8 +1258,10 @@
   <sheetPr/>
   <dimension ref="A2:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1218,7 +1270,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1235,299 +1287,344 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" ht="40.5" spans="1:6">
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:7">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" ht="27" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" ht="27" spans="1:7">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3"/>
-    </row>
-    <row r="5" ht="27" spans="1:6">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" ht="27" spans="1:7">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-    </row>
-    <row r="6" ht="40.5" spans="1:6">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" ht="40.5" spans="1:7">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3"/>
-    </row>
-    <row r="7" ht="67.5" spans="1:6">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" ht="67.5" spans="1:7">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" ht="40.5" spans="1:10">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" ht="27" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" ht="27" spans="1:7">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" ht="27" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" ht="27" spans="1:7">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" ht="40.5" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" ht="40.5" spans="1:7">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" ht="27" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" ht="27" spans="1:7">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" ht="27" spans="1:6">
+        <v>46</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" ht="27" spans="1:7">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" ht="40.5" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" ht="40.5" spans="1:7">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" ht="94.5" spans="1:6">
+      <c r="F15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" ht="94.5" spans="1:7">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" ht="54" spans="1:6">
+      <c r="F16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" ht="54" spans="1:7">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" ht="67.5" spans="1:7">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" ht="108" spans="1:7">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
@@ -1535,7 +1632,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
@@ -1543,7 +1640,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2"/>
@@ -1551,7 +1648,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2"/>
@@ -1559,7 +1656,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2"/>
@@ -1567,7 +1664,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2"/>
@@ -1575,7 +1672,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2"/>
@@ -1583,7 +1680,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
@@ -1591,7 +1688,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
@@ -1599,7 +1696,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="4"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
@@ -1607,7 +1704,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
@@ -1615,7 +1712,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="4"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
@@ -1623,7 +1720,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
@@ -1631,7 +1728,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="4"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
@@ -1639,7 +1736,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="4"/>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2"/>
@@ -1647,7 +1744,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="4"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2"/>
@@ -1655,7 +1752,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="4"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2"/>
@@ -1663,7 +1760,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="4"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2"/>
@@ -1671,7 +1768,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2"/>
@@ -1679,7 +1776,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="4"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2"/>
@@ -1687,7 +1784,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="4"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
@@ -1695,7 +1792,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="4"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2"/>
@@ -1703,7 +1800,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="4"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2"/>
@@ -1711,7 +1808,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="4"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2"/>
@@ -1719,7 +1816,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="4"/>
+      <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
@@ -1727,7 +1824,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="4"/>
+      <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2"/>
@@ -1735,7 +1832,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="4"/>
+      <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
@@ -1743,7 +1840,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="4"/>
+      <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
@@ -1751,7 +1848,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="4"/>
+      <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2"/>
@@ -1759,7 +1856,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="4"/>
+      <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2"/>
@@ -1767,7 +1864,7 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="4"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2"/>
@@ -1775,7 +1872,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="4"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2"/>
@@ -1783,7 +1880,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="4"/>
+      <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2"/>
@@ -1791,7 +1888,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="4"/>
+      <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2"/>
@@ -1799,7 +1896,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="4"/>
+      <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2"/>
@@ -1807,7 +1904,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="4"/>
+      <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2"/>
@@ -1815,7 +1912,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="4"/>
+      <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2"/>
@@ -1823,7 +1920,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="4"/>
+      <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2"/>
@@ -1831,7 +1928,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="4"/>
+      <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2"/>
@@ -1839,7 +1936,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="4"/>
+      <c r="F59" s="5"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2"/>
@@ -1847,7 +1944,7 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="4"/>
+      <c r="F60" s="5"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2"/>
@@ -1855,7 +1952,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="4"/>
+      <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2"/>
@@ -1863,7 +1960,7 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="4"/>
+      <c r="F62" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/com.my.test/src/main/resources/单词表.xlsx
+++ b/com.my.test/src/main/resources/单词表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>序号</t>
   </si>
@@ -237,6 +237,18 @@
   </si>
   <si>
     <t>大约80%的订单会被用于word 处理</t>
+  </si>
+  <si>
+    <t>patched</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>补丁</t>
+  </si>
+  <si>
+    <t>patched version</t>
   </si>
 </sst>
 </file>
@@ -245,8 +257,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -258,9 +270,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,44 +303,6 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,6 +344,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -401,6 +405,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -411,37 +423,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,145 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,15 +645,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -657,13 +660,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,17 +684,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,6 +731,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -738,10 +750,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,137 +762,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,13 +908,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1259,9 +1265,9 @@
   <dimension ref="A2:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1406,7 +1412,7 @@
         <v>30</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="J8" s="8"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" ht="27" spans="1:7">
       <c r="A9" s="3">
@@ -1492,7 +1498,7 @@
       <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" ht="27" spans="1:7">
@@ -1509,7 +1515,7 @@
       <c r="E14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" ht="40.5" spans="1:7">
@@ -1583,7 +1589,7 @@
       <c r="E18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" ht="67.5" spans="1:7">
@@ -1619,20 +1625,28 @@
         <v>70</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
@@ -1640,7 +1654,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2"/>
@@ -1648,7 +1662,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2"/>
@@ -1656,7 +1670,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2"/>
@@ -1664,7 +1678,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="5"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2"/>
@@ -1672,7 +1686,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2"/>
@@ -1680,7 +1694,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="5"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2"/>
@@ -1688,7 +1702,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="5"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2"/>
@@ -1696,7 +1710,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="5"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
@@ -1704,7 +1718,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="5"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
@@ -1712,7 +1726,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="5"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2"/>
@@ -1720,7 +1734,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="5"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
@@ -1728,7 +1742,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="5"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
@@ -1736,7 +1750,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="5"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2"/>
@@ -1744,7 +1758,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="5"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2"/>
@@ -1752,7 +1766,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="5"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2"/>
@@ -1760,7 +1774,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="5"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2"/>
@@ -1768,7 +1782,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="5"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2"/>
@@ -1776,7 +1790,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="5"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2"/>
@@ -1784,7 +1798,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="5"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
@@ -1792,7 +1806,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="5"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2"/>
@@ -1800,7 +1814,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="5"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2"/>
@@ -1808,7 +1822,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="5"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2"/>
@@ -1816,7 +1830,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="5"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
@@ -1824,7 +1838,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="5"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2"/>
@@ -1832,7 +1846,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="5"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
@@ -1840,7 +1854,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="5"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
@@ -1848,7 +1862,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="5"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2"/>
@@ -1856,7 +1870,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="5"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2"/>
@@ -1864,7 +1878,7 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="5"/>
+      <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2"/>
@@ -1872,7 +1886,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="5"/>
+      <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2"/>
@@ -1880,7 +1894,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="5"/>
+      <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2"/>
@@ -1888,7 +1902,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="5"/>
+      <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2"/>
@@ -1896,7 +1910,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="5"/>
+      <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2"/>
@@ -1904,7 +1918,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="5"/>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2"/>
@@ -1912,7 +1926,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="5"/>
+      <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2"/>
@@ -1920,7 +1934,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="5"/>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2"/>
@@ -1928,7 +1942,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="5"/>
+      <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2"/>
@@ -1936,7 +1950,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="5"/>
+      <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2"/>
@@ -1944,7 +1958,7 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="5"/>
+      <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2"/>
@@ -1952,7 +1966,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="5"/>
+      <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2"/>
@@ -1960,7 +1974,7 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="5"/>
+      <c r="F62" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/com.my.test/src/main/resources/单词表.xlsx
+++ b/com.my.test/src/main/resources/单词表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>序号</t>
   </si>
@@ -249,6 +249,15 @@
   </si>
   <si>
     <t>patched version</t>
+  </si>
+  <si>
+    <t>retrospectly</t>
+  </si>
+  <si>
+    <t>回顾性地,其实就是可追踪,可重来</t>
+  </si>
+  <si>
+    <t>process event of stream as they occur retrospectly</t>
   </si>
 </sst>
 </file>
@@ -256,9 +265,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -267,13 +276,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,14 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -306,9 +300,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,16 +346,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,66 +416,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -423,156 +432,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -580,24 +607,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,6 +654,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -677,8 +725,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -693,51 +743,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -750,10 +759,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,137 +771,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -909,6 +918,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1267,7 +1279,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1412,7 +1424,7 @@
         <v>30</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" ht="27" spans="1:7">
       <c r="A9" s="3">
@@ -1648,13 +1660,21 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+    <row r="22" ht="67.5" spans="1:6">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2"/>
